--- a/2_experts_res/SEED_IV/result.xlsx
+++ b/2_experts_res/SEED_IV/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\最新结果\SEED_IV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finegrained_GNN\2_experts_res\SEED_IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753065D3-3426-40E6-86D4-C1528DAE913E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AD3928-5C09-4A89-A62B-34CA91CD721C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -29,6 +29,10 @@
   </si>
   <si>
     <t>平均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -162,6 +166,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -470,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,6 +862,15 @@
         <v>0.83591555555555552</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <f>STDEVPA(B2:B46)</f>
+        <v>0.12290504728005978</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
